--- a/Anabell/Daten/JIM-Studie_Internetaktivität.xlsx
+++ b/Anabell/Daten/JIM-Studie_Internetaktivität.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://goetheuniversitaet-my.sharepoint.com/personal/7_c5unnlmq_goetheuniversitaet_onmicrosoft_com/Documents/Goethe Uni/Bachelor Arbeit/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://goetheuniversitaet-my.sharepoint.com/personal/7_c5unnlmq_goetheuniversitaet_onmicrosoft_com/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D6BED8A0-DEA5-4638-B96F-ECFD4460E065}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="101" documentId="8_{D40E2197-138C-459A-BD18-137700D22885}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0C007F08-170E-4C38-A017-4ADC8DE5A22E}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{5795C4B2-D7EA-4B6E-B2FC-0A5EB68C1214}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="81">
   <si>
     <t>Jahr</t>
   </si>
@@ -108,6 +108,177 @@
   </si>
   <si>
     <t>n</t>
+  </si>
+  <si>
+    <t>Aktivität</t>
+  </si>
+  <si>
+    <t>Kategorie</t>
+  </si>
+  <si>
+    <t>com</t>
+  </si>
+  <si>
+    <t>soc</t>
+  </si>
+  <si>
+    <t>inf</t>
+  </si>
+  <si>
+    <t>vid</t>
+  </si>
+  <si>
+    <t>Kommunikation</t>
+  </si>
+  <si>
+    <t>Info</t>
+  </si>
+  <si>
+    <t>Soziales Netzwerk</t>
+  </si>
+  <si>
+    <t>Video Streaming</t>
+  </si>
+  <si>
+    <t>Suchmaschinen</t>
+  </si>
+  <si>
+    <t>YouTube info</t>
+  </si>
+  <si>
+    <t>Wikipedia</t>
+  </si>
+  <si>
+    <t>Zeitschriften Portal</t>
+  </si>
+  <si>
+    <t>Nachrichten Provider</t>
+  </si>
+  <si>
+    <t>Chatten</t>
+  </si>
+  <si>
+    <t>Instant-Massanger</t>
+  </si>
+  <si>
+    <t>E-Mail</t>
+  </si>
+  <si>
+    <t>Multi-User-Spiele</t>
+  </si>
+  <si>
+    <t>Veranstaltungen suchen</t>
+  </si>
+  <si>
+    <t>Newsgroups</t>
+  </si>
+  <si>
+    <t>Video Anleitungen</t>
+  </si>
+  <si>
+    <t>Video Produktvorstellung</t>
+  </si>
+  <si>
+    <t>Webblogs</t>
+  </si>
+  <si>
+    <t>Sport-Live-Ticker</t>
+  </si>
+  <si>
+    <t>unt</t>
+  </si>
+  <si>
+    <t>Unterhaltung</t>
+  </si>
+  <si>
+    <t>Videoportale</t>
+  </si>
+  <si>
+    <t>Musik</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surfen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TV-Mediatek </t>
+  </si>
+  <si>
+    <t>Internet-Radio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mediateken </t>
+  </si>
+  <si>
+    <t>Netflix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YouTube </t>
+  </si>
+  <si>
+    <t>Amazon Prime Video</t>
+  </si>
+  <si>
+    <t>Sky</t>
+  </si>
+  <si>
+    <t>Magenta TV</t>
+  </si>
+  <si>
+    <t>Maxdome</t>
+  </si>
+  <si>
+    <t>iTunes</t>
+  </si>
+  <si>
+    <t>Vimeo</t>
+  </si>
+  <si>
+    <t>Disney Plus</t>
+  </si>
+  <si>
+    <t>RTL Plus</t>
+  </si>
+  <si>
+    <t>WOW</t>
+  </si>
+  <si>
+    <t>Newsfeeds</t>
+  </si>
+  <si>
+    <t>Nachrichten Apps</t>
+  </si>
+  <si>
+    <t>Google News</t>
+  </si>
+  <si>
+    <t>Infos suche</t>
+  </si>
+  <si>
+    <t>Schlagzeilen Google</t>
+  </si>
+  <si>
+    <t>Infos Facebook/Twitter</t>
+  </si>
+  <si>
+    <t>Nachrichtenportale TV</t>
+  </si>
+  <si>
+    <t>Vine</t>
+  </si>
+  <si>
+    <t>Watchever</t>
+  </si>
+  <si>
+    <t>schülerVZ</t>
+  </si>
+  <si>
+    <t>infos Schule/beruf</t>
+  </si>
+  <si>
+    <t>internet-Telefon</t>
+  </si>
+  <si>
+    <t>TV-Live/Internet</t>
   </si>
 </sst>
 </file>
@@ -143,9 +314,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -480,505 +652,2085 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2C23EAC-00A1-463B-9BC5-3A38CFDF8C5F}">
-  <dimension ref="A1:J30"/>
+  <dimension ref="A1:U81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" topLeftCell="D50" workbookViewId="0">
+      <selection activeCell="V64" sqref="V64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="13.796875" customWidth="1"/>
+    <col min="1" max="1" width="21.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2">
         <v>2023</v>
       </c>
-      <c r="C1">
+      <c r="D2">
         <v>2022</v>
       </c>
-      <c r="D1">
+      <c r="E2">
         <v>2021</v>
       </c>
-      <c r="E1">
+      <c r="F2">
         <v>2020</v>
       </c>
-      <c r="F1">
+      <c r="G2">
         <v>2019</v>
       </c>
-      <c r="G1">
+      <c r="H2">
         <v>2018</v>
       </c>
-      <c r="H1">
+      <c r="I2">
         <v>2017</v>
       </c>
-      <c r="I1">
+      <c r="J2">
         <v>2016</v>
       </c>
-      <c r="J1">
+      <c r="K2">
         <v>2015</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
+      <c r="L2">
+        <v>2014</v>
+      </c>
+      <c r="M2">
+        <v>2013</v>
+      </c>
+      <c r="N2">
+        <v>2012</v>
+      </c>
+      <c r="O2">
+        <v>2011</v>
+      </c>
+      <c r="P2">
+        <v>2010</v>
+      </c>
+      <c r="Q2">
+        <v>2009</v>
+      </c>
+      <c r="R2">
+        <v>2008</v>
+      </c>
+      <c r="S2">
+        <v>2007</v>
+      </c>
+      <c r="T2">
+        <v>2006</v>
+      </c>
+      <c r="U2">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3">
         <v>94</v>
       </c>
-      <c r="C2">
+      <c r="D3">
         <v>93</v>
       </c>
-      <c r="D2">
+      <c r="E3">
         <v>92</v>
       </c>
-      <c r="E2">
+      <c r="F3">
         <v>94</v>
       </c>
-      <c r="F2">
+      <c r="G3">
         <v>93</v>
       </c>
-      <c r="G2">
+      <c r="H3">
         <v>95</v>
       </c>
-      <c r="H2">
+      <c r="I3">
         <v>94</v>
       </c>
-      <c r="I2">
+      <c r="J3">
         <v>95</v>
       </c>
-      <c r="J2">
+      <c r="K3">
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4">
         <v>62</v>
       </c>
-      <c r="C3">
+      <c r="D4">
         <v>62</v>
       </c>
-      <c r="D3">
+      <c r="E4">
         <v>58</v>
       </c>
-      <c r="E3">
+      <c r="F4">
         <v>72</v>
       </c>
-      <c r="F3">
+      <c r="G4">
         <v>64</v>
       </c>
-      <c r="G3">
+      <c r="H4">
         <v>67</v>
       </c>
-      <c r="H3">
+      <c r="I4">
         <v>57</v>
       </c>
-      <c r="I3">
+      <c r="J4">
         <v>51</v>
       </c>
-      <c r="J3">
+      <c r="K4">
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5">
         <v>59</v>
       </c>
-      <c r="C4">
+      <c r="D5">
         <v>54</v>
       </c>
-      <c r="D4">
+      <c r="E5">
         <v>46</v>
       </c>
-      <c r="E4">
+      <c r="F5">
         <v>33</v>
       </c>
-      <c r="F4">
+      <c r="G5">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6">
         <v>49.5</v>
       </c>
-      <c r="C5">
+      <c r="D6">
         <v>45</v>
       </c>
-      <c r="D5">
+      <c r="E6">
         <v>42</v>
       </c>
-      <c r="E5">
+      <c r="F6">
         <v>51</v>
       </c>
-      <c r="F5">
+      <c r="G6">
         <v>46</v>
       </c>
-      <c r="G5">
+      <c r="H6">
         <v>54</v>
       </c>
-      <c r="H5">
+      <c r="I6">
         <v>49</v>
       </c>
-      <c r="I5">
+      <c r="J6">
         <v>45</v>
       </c>
-      <c r="J5">
+      <c r="K6">
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7">
         <v>21.5</v>
       </c>
-      <c r="C6">
+      <c r="D7">
         <v>28</v>
       </c>
-      <c r="D6">
+      <c r="E7">
         <v>26</v>
       </c>
-      <c r="E6">
+      <c r="F7">
         <v>17</v>
       </c>
-      <c r="F6">
+      <c r="G7">
         <v>15</v>
       </c>
-      <c r="G6">
+      <c r="H7">
         <v>15</v>
       </c>
-      <c r="H6">
+      <c r="I7">
         <v>25</v>
       </c>
-      <c r="I6">
+      <c r="J7">
         <v>43</v>
       </c>
-      <c r="J6">
+      <c r="K7">
         <v>51</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
+      <c r="L7">
+        <v>62.25</v>
+      </c>
+      <c r="M7">
+        <v>75</v>
+      </c>
+      <c r="N7">
+        <v>77.5</v>
+      </c>
+      <c r="O7">
+        <v>76.75</v>
+      </c>
+      <c r="P7">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B7">
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8">
         <v>18</v>
       </c>
-      <c r="C7">
+      <c r="D8">
         <v>16</v>
       </c>
-      <c r="D7">
+      <c r="E8">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="B8">
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="B9">
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10">
         <v>15.5</v>
       </c>
-      <c r="C9">
+      <c r="D10">
         <v>13</v>
       </c>
-      <c r="D9">
+      <c r="E10">
         <v>13</v>
       </c>
-      <c r="E9">
+      <c r="F10">
         <v>13</v>
       </c>
-      <c r="F9">
+      <c r="G10">
         <v>7</v>
       </c>
-      <c r="G9">
+      <c r="H10">
         <v>10</v>
       </c>
-      <c r="H9">
+      <c r="I10">
         <v>6</v>
       </c>
-      <c r="I9">
+      <c r="J10">
         <v>4</v>
       </c>
-      <c r="J9">
+      <c r="K10">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
         <v>9</v>
       </c>
-      <c r="B10">
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11">
         <v>13</v>
       </c>
-      <c r="C10">
+      <c r="D11">
         <v>11</v>
       </c>
-      <c r="D10">
+      <c r="E11">
         <v>12</v>
       </c>
-      <c r="E10">
+      <c r="F11">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
         <v>10</v>
       </c>
-      <c r="B11">
+      <c r="B12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12">
         <v>12</v>
       </c>
-      <c r="C11">
+      <c r="D12">
         <v>11</v>
       </c>
-      <c r="D11">
+      <c r="E12">
         <v>10</v>
       </c>
-      <c r="E11">
+      <c r="F12">
         <v>13</v>
       </c>
-      <c r="F11">
+      <c r="G12">
         <v>7</v>
       </c>
-      <c r="G11">
+      <c r="H12">
         <v>8</v>
       </c>
-      <c r="H11">
+      <c r="I12">
         <v>9</v>
       </c>
-      <c r="I11">
+      <c r="J12">
         <v>9</v>
       </c>
-      <c r="J11">
+      <c r="K12">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
+      <c r="L12">
+        <v>6.5</v>
+      </c>
+      <c r="M12">
+        <v>5</v>
+      </c>
+      <c r="N12">
+        <v>5.5</v>
+      </c>
+      <c r="O12">
+        <v>4.5</v>
+      </c>
+      <c r="P12">
+        <v>4</v>
+      </c>
+      <c r="Q12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
         <v>11</v>
       </c>
-      <c r="B12">
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13">
         <v>9.5</v>
       </c>
-      <c r="C12">
+      <c r="D13">
         <v>8</v>
       </c>
-      <c r="D12">
+      <c r="E13">
         <v>8</v>
       </c>
-      <c r="E12">
+      <c r="F13">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
         <v>12</v>
       </c>
-      <c r="B13">
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14">
         <v>8.5</v>
       </c>
-      <c r="C13">
+      <c r="D14">
         <v>6</v>
       </c>
-      <c r="D13">
+      <c r="E14">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
         <v>13</v>
       </c>
-      <c r="B14">
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15">
         <v>4</v>
       </c>
-      <c r="C14">
+      <c r="D15">
         <v>3</v>
       </c>
-      <c r="D14">
+      <c r="E15">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
         <v>14</v>
       </c>
-      <c r="B15">
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16">
         <v>3.5</v>
       </c>
-      <c r="C15">
+      <c r="D16">
         <v>3</v>
       </c>
-      <c r="D15">
+      <c r="E16">
         <v>4</v>
       </c>
-      <c r="E15">
+      <c r="F16">
         <v>4</v>
       </c>
-      <c r="F15">
+      <c r="G16">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A16" t="s">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
         <v>15</v>
       </c>
-      <c r="B16">
+      <c r="B17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A17" t="s">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17">
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1">
         <v>12</v>
       </c>
-      <c r="E17">
+      <c r="E18">
+        <v>5</v>
+      </c>
+      <c r="F18">
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A18" t="s">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
         <v>17</v>
       </c>
-      <c r="D18">
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19">
+        <v>12</v>
+      </c>
+      <c r="E19">
         <v>10</v>
       </c>
-      <c r="E18">
+      <c r="F19">
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A19" t="s">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
         <v>18</v>
       </c>
-      <c r="D19">
+      <c r="B20" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A20" t="s">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
         <v>19</v>
       </c>
-      <c r="E20">
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21">
         <v>6</v>
       </c>
-      <c r="F20">
+      <c r="E21">
+        <v>6</v>
+      </c>
+      <c r="F21">
+        <v>6</v>
+      </c>
+      <c r="G21">
         <v>3</v>
       </c>
-      <c r="G20">
+      <c r="H21">
         <v>4</v>
       </c>
-      <c r="H20">
+      <c r="I21">
         <v>8</v>
       </c>
-      <c r="I20">
+      <c r="J21">
         <v>17</v>
       </c>
-      <c r="J20">
+      <c r="K21">
         <v>21</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A21" t="s">
+      <c r="L21">
+        <v>20.25</v>
+      </c>
+      <c r="M21">
+        <v>28</v>
+      </c>
+      <c r="N21">
+        <v>19.25</v>
+      </c>
+      <c r="O21">
+        <v>19.5</v>
+      </c>
+      <c r="P21">
+        <v>14</v>
+      </c>
+      <c r="Q21">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="E21">
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="F22">
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A22" t="s">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
         <v>21</v>
       </c>
-      <c r="G22">
+      <c r="B23" t="s">
+        <v>28</v>
+      </c>
+      <c r="H23">
         <v>3</v>
       </c>
-      <c r="H22">
+      <c r="I23">
         <v>3</v>
-      </c>
-      <c r="I22">
-        <v>6</v>
-      </c>
-      <c r="J22">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A23" t="s">
-        <v>22</v>
-      </c>
-      <c r="G23">
-        <v>4</v>
-      </c>
-      <c r="H23">
-        <v>4</v>
-      </c>
-      <c r="I23">
-        <v>4</v>
       </c>
       <c r="J23">
         <v>6</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K23">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>27</v>
+      </c>
+      <c r="H24">
+        <v>4</v>
+      </c>
+      <c r="I24">
+        <v>4</v>
+      </c>
+      <c r="J24">
+        <v>4</v>
+      </c>
+      <c r="K24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25">
+        <v>38.75</v>
+      </c>
+      <c r="E25">
+        <v>41</v>
+      </c>
+      <c r="F25">
+        <v>88</v>
+      </c>
+      <c r="G25">
+        <v>87</v>
+      </c>
+      <c r="H25">
+        <v>87</v>
+      </c>
+      <c r="I25">
+        <v>85</v>
+      </c>
+      <c r="J25">
+        <v>86.25</v>
+      </c>
+      <c r="K25">
+        <v>81.5</v>
+      </c>
+      <c r="L25">
+        <v>85</v>
+      </c>
+      <c r="M25">
+        <v>80</v>
+      </c>
+      <c r="N25">
+        <v>82</v>
+      </c>
+      <c r="O25">
+        <v>80</v>
+      </c>
+      <c r="P25">
+        <v>78</v>
+      </c>
+      <c r="Q25">
+        <v>76.75</v>
+      </c>
+      <c r="R25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26">
+        <v>33</v>
+      </c>
+      <c r="D26">
+        <v>22.25</v>
+      </c>
+      <c r="E26">
+        <v>26</v>
+      </c>
+      <c r="F26">
+        <v>65</v>
+      </c>
+      <c r="G26">
+        <v>55</v>
+      </c>
+      <c r="H26">
+        <v>60</v>
+      </c>
+      <c r="I26">
+        <v>61</v>
+      </c>
+      <c r="J26">
+        <v>56.75</v>
+      </c>
+      <c r="K26">
+        <v>58.75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" t="s">
+        <v>28</v>
+      </c>
+      <c r="F27">
+        <v>40</v>
+      </c>
+      <c r="G27">
+        <v>33</v>
+      </c>
+      <c r="H27">
+        <v>33</v>
+      </c>
+      <c r="I27">
+        <v>33</v>
+      </c>
+      <c r="J27">
+        <v>35</v>
+      </c>
+      <c r="K27">
+        <v>42.25</v>
+      </c>
+      <c r="L27">
+        <v>40</v>
+      </c>
+      <c r="M27">
+        <v>38</v>
+      </c>
+      <c r="N27">
+        <v>36</v>
+      </c>
+      <c r="O27">
+        <v>37</v>
+      </c>
+      <c r="P27">
+        <v>37.25</v>
+      </c>
+      <c r="Q27">
+        <v>37.75</v>
+      </c>
+      <c r="R27">
+        <v>32.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>73</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+      <c r="F28">
+        <v>24</v>
+      </c>
+      <c r="G28">
+        <v>16</v>
+      </c>
+      <c r="H28">
+        <v>19</v>
+      </c>
+      <c r="I28">
+        <v>25</v>
+      </c>
+      <c r="J28">
+        <v>35.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29">
+        <v>13</v>
+      </c>
+      <c r="D29">
+        <v>15</v>
+      </c>
+      <c r="E29">
+        <v>17</v>
+      </c>
+      <c r="F29">
+        <v>18</v>
+      </c>
+      <c r="G29">
+        <v>17</v>
+      </c>
+      <c r="H29">
+        <v>22</v>
+      </c>
+      <c r="I29">
+        <v>23</v>
+      </c>
+      <c r="J29">
+        <v>19.5</v>
+      </c>
+      <c r="K29">
+        <v>21.5</v>
+      </c>
+      <c r="L29">
+        <v>17</v>
+      </c>
+      <c r="M29">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1">
+        <v>15.75</v>
+      </c>
+      <c r="E30" s="1">
+        <v>12</v>
+      </c>
+      <c r="F30" s="1">
+        <v>15</v>
+      </c>
+      <c r="G30" s="1">
+        <v>9</v>
+      </c>
+      <c r="H30" s="1">
+        <v>7</v>
+      </c>
+      <c r="I30" s="1">
+        <v>10</v>
+      </c>
+      <c r="J30" s="1">
+        <v>13</v>
+      </c>
+      <c r="K30" s="1">
+        <v>18.25</v>
+      </c>
+      <c r="S30">
+        <v>37.5</v>
+      </c>
+      <c r="T30">
+        <v>30</v>
+      </c>
+      <c r="U30">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
+        <v>74</v>
+      </c>
+      <c r="B31" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31">
+        <v>21</v>
+      </c>
+      <c r="D31">
+        <v>19.75</v>
+      </c>
+      <c r="E31">
+        <v>20</v>
+      </c>
+      <c r="F31">
+        <v>14</v>
+      </c>
+      <c r="G31">
+        <v>6</v>
+      </c>
+      <c r="H31">
+        <v>6</v>
+      </c>
+      <c r="I31">
+        <v>8</v>
+      </c>
+      <c r="J31">
+        <v>7.75</v>
+      </c>
+      <c r="K31">
+        <v>7</v>
+      </c>
+      <c r="L31">
+        <v>5</v>
+      </c>
+      <c r="M31">
+        <v>5</v>
+      </c>
+      <c r="N31">
+        <v>5</v>
+      </c>
+      <c r="O31">
+        <v>5</v>
+      </c>
+      <c r="P31">
+        <v>4.25</v>
+      </c>
+      <c r="Q31">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="L32">
+        <v>80.25</v>
+      </c>
+      <c r="M32">
+        <v>33</v>
+      </c>
+      <c r="N32">
+        <v>44</v>
+      </c>
+      <c r="O32">
+        <v>45.5</v>
+      </c>
+      <c r="P32">
+        <v>48</v>
+      </c>
+      <c r="Q32">
+        <v>28</v>
+      </c>
+      <c r="R32">
+        <v>29</v>
+      </c>
+      <c r="S32">
+        <v>30</v>
+      </c>
+      <c r="T32">
+        <v>25.5</v>
+      </c>
+      <c r="U32">
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="L33">
+        <v>9.75</v>
+      </c>
+      <c r="M33">
+        <v>13</v>
+      </c>
+      <c r="N33">
+        <v>23.75</v>
+      </c>
+      <c r="O33">
+        <v>48</v>
+      </c>
+      <c r="P33">
+        <v>63</v>
+      </c>
+      <c r="Q33">
+        <v>71</v>
+      </c>
+      <c r="R33">
+        <v>73</v>
+      </c>
+      <c r="S33">
+        <v>71.5</v>
+      </c>
+      <c r="T33">
+        <v>57.5</v>
+      </c>
+      <c r="U33">
+        <v>40.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A34" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="L34">
+        <v>40.5</v>
+      </c>
+      <c r="M34">
+        <v>48</v>
+      </c>
+      <c r="N34">
+        <v>52</v>
+      </c>
+      <c r="O34">
+        <v>55.75</v>
+      </c>
+      <c r="P34">
+        <v>55</v>
+      </c>
+      <c r="Q34">
+        <v>55</v>
+      </c>
+      <c r="R34">
+        <v>49</v>
+      </c>
+      <c r="S34">
+        <v>59.5</v>
+      </c>
+      <c r="T34">
+        <v>49.5</v>
+      </c>
+      <c r="U34">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A35" t="s">
+        <v>42</v>
+      </c>
+      <c r="L35">
+        <v>17.25</v>
+      </c>
+      <c r="M35">
+        <v>15</v>
+      </c>
+      <c r="N35">
+        <v>12.25</v>
+      </c>
+      <c r="O35">
+        <v>13</v>
+      </c>
+      <c r="P35">
+        <v>15</v>
+      </c>
+      <c r="Q35">
+        <v>14</v>
+      </c>
+      <c r="R35">
+        <v>19</v>
+      </c>
+      <c r="T35">
+        <v>14.5</v>
+      </c>
+      <c r="U35">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A36" t="s">
+        <v>71</v>
+      </c>
+      <c r="B36" t="s">
+        <v>28</v>
+      </c>
+      <c r="L36">
+        <v>44</v>
+      </c>
+      <c r="M36">
+        <v>38</v>
+      </c>
+      <c r="N36">
+        <v>41</v>
+      </c>
+      <c r="O36">
+        <v>38</v>
+      </c>
+      <c r="R36">
+        <v>39</v>
+      </c>
+      <c r="S36">
+        <v>40</v>
+      </c>
+      <c r="T36">
+        <v>34</v>
+      </c>
+      <c r="U36">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A37" t="s">
+        <v>43</v>
+      </c>
+      <c r="B37" t="s">
+        <v>28</v>
+      </c>
+      <c r="L37">
+        <v>11</v>
+      </c>
+      <c r="M37">
+        <v>15</v>
+      </c>
+      <c r="O37">
+        <v>14</v>
+      </c>
+      <c r="P37">
+        <v>11</v>
+      </c>
+      <c r="Q37">
+        <v>12.5</v>
+      </c>
+      <c r="R37">
+        <v>13</v>
+      </c>
+      <c r="S37">
+        <v>15.5</v>
+      </c>
+      <c r="T37">
+        <v>12.5</v>
+      </c>
+      <c r="U37">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A38" t="s">
+        <v>44</v>
+      </c>
+      <c r="B38" t="s">
+        <v>28</v>
+      </c>
+      <c r="K38">
+        <v>13.25</v>
+      </c>
+      <c r="L38">
+        <v>11</v>
+      </c>
+      <c r="M38">
+        <v>15</v>
+      </c>
+      <c r="N38">
+        <v>22</v>
+      </c>
+      <c r="O38">
         <v>23</v>
       </c>
-      <c r="B30" s="1">
+      <c r="P38">
+        <v>21.5</v>
+      </c>
+      <c r="Q38">
+        <v>18.5</v>
+      </c>
+      <c r="R38">
+        <v>22</v>
+      </c>
+      <c r="S38">
+        <v>21.5</v>
+      </c>
+      <c r="T38">
+        <v>15.5</v>
+      </c>
+      <c r="U38">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A39" t="s">
+        <v>45</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="L39">
+        <v>12</v>
+      </c>
+      <c r="M39">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A40" t="s">
+        <v>46</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="L40">
+        <v>11</v>
+      </c>
+      <c r="M40">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A41" t="s">
+        <v>47</v>
+      </c>
+      <c r="B41" t="s">
+        <v>28</v>
+      </c>
+      <c r="L41">
+        <v>7</v>
+      </c>
+      <c r="M41">
+        <v>7</v>
+      </c>
+      <c r="N41">
+        <v>7</v>
+      </c>
+      <c r="O41">
+        <v>8</v>
+      </c>
+      <c r="P41">
+        <v>8.75</v>
+      </c>
+      <c r="Q41">
+        <v>8.25</v>
+      </c>
+      <c r="R41">
+        <v>7</v>
+      </c>
+      <c r="S41">
+        <v>6.5</v>
+      </c>
+      <c r="T41">
+        <v>8</v>
+      </c>
+      <c r="U41">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A42" t="s">
+        <v>48</v>
+      </c>
+      <c r="B42" t="s">
+        <v>28</v>
+      </c>
+      <c r="L42">
+        <v>10</v>
+      </c>
+      <c r="M42">
+        <v>12</v>
+      </c>
+      <c r="N42">
+        <v>11</v>
+      </c>
+      <c r="O42">
+        <v>8</v>
+      </c>
+      <c r="P42">
+        <v>7</v>
+      </c>
+      <c r="Q42">
+        <v>9.25</v>
+      </c>
+      <c r="R42">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A43" t="s">
+        <v>51</v>
+      </c>
+      <c r="B43" t="s">
+        <v>49</v>
+      </c>
+      <c r="L43">
+        <v>74.5</v>
+      </c>
+      <c r="M43">
+        <v>74</v>
+      </c>
+      <c r="N43">
+        <v>71</v>
+      </c>
+      <c r="O43">
+        <v>68</v>
+      </c>
+      <c r="P43">
+        <v>65.5</v>
+      </c>
+      <c r="Q43">
+        <v>64</v>
+      </c>
+      <c r="R43">
+        <v>26</v>
+      </c>
+      <c r="S43">
+        <v>19.5</v>
+      </c>
+      <c r="T43">
+        <v>9</v>
+      </c>
+      <c r="U43">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A44" t="s">
+        <v>52</v>
+      </c>
+      <c r="B44" t="s">
+        <v>49</v>
+      </c>
+      <c r="L44">
+        <v>57.5</v>
+      </c>
+      <c r="M44">
+        <v>67</v>
+      </c>
+      <c r="N44">
+        <v>67</v>
+      </c>
+      <c r="O44">
+        <v>61.75</v>
+      </c>
+      <c r="P44">
+        <v>59.5</v>
+      </c>
+      <c r="R44">
+        <v>47</v>
+      </c>
+      <c r="S44">
+        <v>48.5</v>
+      </c>
+      <c r="T44">
+        <v>33.5</v>
+      </c>
+      <c r="U44">
+        <v>27.5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A45" t="s">
+        <v>53</v>
+      </c>
+      <c r="B45" t="s">
+        <v>49</v>
+      </c>
+      <c r="L45">
+        <v>43</v>
+      </c>
+      <c r="M45">
+        <v>47</v>
+      </c>
+      <c r="N45">
+        <v>42</v>
+      </c>
+      <c r="O45">
+        <v>44.5</v>
+      </c>
+      <c r="P45">
+        <v>44</v>
+      </c>
+      <c r="Q45">
+        <v>45</v>
+      </c>
+      <c r="R45">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A46" t="s">
+        <v>54</v>
+      </c>
+      <c r="B46" t="s">
+        <v>49</v>
+      </c>
+      <c r="C46">
+        <v>13.25</v>
+      </c>
+      <c r="L46">
+        <v>12.5</v>
+      </c>
+      <c r="M46">
+        <v>11</v>
+      </c>
+      <c r="N46">
+        <v>11</v>
+      </c>
+      <c r="O46">
+        <v>9.25</v>
+      </c>
+      <c r="P46">
+        <v>8.25</v>
+      </c>
+      <c r="Q46">
+        <v>8</v>
+      </c>
+      <c r="U46">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A47" t="s">
+        <v>80</v>
+      </c>
+      <c r="B47" t="s">
+        <v>49</v>
+      </c>
+      <c r="C47">
+        <v>16.25</v>
+      </c>
+      <c r="L47">
+        <v>6</v>
+      </c>
+      <c r="M47">
+        <v>8</v>
+      </c>
+      <c r="N47">
+        <v>5</v>
+      </c>
+      <c r="O47">
+        <v>3.75</v>
+      </c>
+      <c r="P47">
+        <v>4</v>
+      </c>
+      <c r="Q47">
+        <v>4</v>
+      </c>
+      <c r="R47">
+        <v>2.5</v>
+      </c>
+      <c r="T47">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A48" t="s">
+        <v>55</v>
+      </c>
+      <c r="B48" t="s">
+        <v>49</v>
+      </c>
+      <c r="L48">
+        <v>6</v>
+      </c>
+      <c r="M48">
+        <v>7</v>
+      </c>
+      <c r="N48">
+        <v>12</v>
+      </c>
+      <c r="O48">
+        <v>11</v>
+      </c>
+      <c r="P48">
+        <v>10.25</v>
+      </c>
+      <c r="Q48">
+        <v>12</v>
+      </c>
+      <c r="R48">
+        <v>8</v>
+      </c>
+      <c r="S48">
+        <v>9</v>
+      </c>
+      <c r="U48">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A49" t="s">
+        <v>56</v>
+      </c>
+      <c r="B49" t="s">
+        <v>49</v>
+      </c>
+      <c r="D49">
+        <v>23.5</v>
+      </c>
+      <c r="E49">
+        <v>17.25</v>
+      </c>
+      <c r="F49">
+        <v>16.5</v>
+      </c>
+      <c r="G49">
+        <v>8.25</v>
+      </c>
+      <c r="H49">
+        <v>8</v>
+      </c>
+      <c r="I49">
+        <v>8</v>
+      </c>
+      <c r="J49">
+        <v>7</v>
+      </c>
+      <c r="K49">
+        <v>11</v>
+      </c>
+      <c r="L49">
+        <v>5</v>
+      </c>
+      <c r="M49">
+        <v>7</v>
+      </c>
+      <c r="N49">
+        <v>6</v>
+      </c>
+      <c r="O49">
+        <v>5</v>
+      </c>
+      <c r="P49">
+        <v>3.25</v>
+      </c>
+      <c r="Q49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A50" t="s">
+        <v>57</v>
+      </c>
+      <c r="B50" t="s">
+        <v>49</v>
+      </c>
+      <c r="C50">
+        <v>49.5</v>
+      </c>
+      <c r="D50">
+        <v>53</v>
+      </c>
+      <c r="E50">
+        <v>52.5</v>
+      </c>
+      <c r="F50">
+        <v>59</v>
+      </c>
+      <c r="G50">
+        <v>45.5</v>
+      </c>
+      <c r="H50">
+        <v>47</v>
+      </c>
+      <c r="I50">
+        <v>26</v>
+      </c>
+      <c r="J50">
+        <v>16</v>
+      </c>
+      <c r="K50">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A51" t="s">
+        <v>58</v>
+      </c>
+      <c r="B51" t="s">
+        <v>49</v>
+      </c>
+      <c r="C51">
+        <v>63.25</v>
+      </c>
+      <c r="D51">
+        <v>50</v>
+      </c>
+      <c r="E51">
+        <v>54.25</v>
+      </c>
+      <c r="F51">
+        <v>58.5</v>
+      </c>
+      <c r="G51">
+        <v>48.5</v>
+      </c>
+      <c r="H51">
+        <v>60</v>
+      </c>
+      <c r="I51">
+        <v>52</v>
+      </c>
+      <c r="J51">
+        <v>42</v>
+      </c>
+      <c r="K51">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A52" t="s">
+        <v>59</v>
+      </c>
+      <c r="B52" t="s">
+        <v>49</v>
+      </c>
+      <c r="C52">
+        <v>30.75</v>
+      </c>
+      <c r="D52">
+        <v>31</v>
+      </c>
+      <c r="E52">
+        <v>26</v>
+      </c>
+      <c r="F52">
+        <v>26</v>
+      </c>
+      <c r="G52">
+        <v>16.75</v>
+      </c>
+      <c r="H52">
+        <v>22</v>
+      </c>
+      <c r="I52">
+        <v>15</v>
+      </c>
+      <c r="J52">
+        <v>7</v>
+      </c>
+      <c r="K52">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A53" t="s">
+        <v>60</v>
+      </c>
+      <c r="B53" t="s">
+        <v>49</v>
+      </c>
+      <c r="C53">
+        <v>11</v>
+      </c>
+      <c r="D53">
+        <v>13.75</v>
+      </c>
+      <c r="E53">
+        <v>9</v>
+      </c>
+      <c r="F53">
+        <v>8.75</v>
+      </c>
+      <c r="G53">
+        <v>7</v>
+      </c>
+      <c r="H53">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A54" t="s">
+        <v>61</v>
+      </c>
+      <c r="B54" t="s">
+        <v>49</v>
+      </c>
+      <c r="D54">
+        <v>6.75</v>
+      </c>
+      <c r="E54">
+        <v>4</v>
+      </c>
+      <c r="F54">
+        <v>5</v>
+      </c>
+      <c r="G54">
+        <v>2</v>
+      </c>
+      <c r="H54">
+        <v>2</v>
+      </c>
+      <c r="I54">
+        <v>2</v>
+      </c>
+      <c r="J54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A55" t="s">
+        <v>62</v>
+      </c>
+      <c r="B55" t="s">
+        <v>49</v>
+      </c>
+      <c r="F55">
+        <v>2.75</v>
+      </c>
+      <c r="G55">
+        <v>1.5</v>
+      </c>
+      <c r="H55">
+        <v>1</v>
+      </c>
+      <c r="I55">
+        <v>2</v>
+      </c>
+      <c r="J55">
+        <v>3</v>
+      </c>
+      <c r="K55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A56" t="s">
+        <v>63</v>
+      </c>
+      <c r="B56" t="s">
+        <v>49</v>
+      </c>
+      <c r="D56">
+        <v>3.25</v>
+      </c>
+      <c r="E56">
+        <v>2.5</v>
+      </c>
+      <c r="F56">
+        <v>3</v>
+      </c>
+      <c r="G56">
+        <v>1</v>
+      </c>
+      <c r="H56">
+        <v>1</v>
+      </c>
+      <c r="I56">
+        <v>2</v>
+      </c>
+      <c r="J56">
+        <v>1</v>
+      </c>
+      <c r="K56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A57" t="s">
+        <v>64</v>
+      </c>
+      <c r="B57" t="s">
+        <v>49</v>
+      </c>
+      <c r="D57">
+        <v>2.25</v>
+      </c>
+      <c r="E57">
+        <v>1.75</v>
+      </c>
+      <c r="F57">
+        <v>2.75</v>
+      </c>
+      <c r="G57">
+        <v>1</v>
+      </c>
+      <c r="H57">
+        <v>1</v>
+      </c>
+      <c r="I57">
+        <v>1</v>
+      </c>
+      <c r="J57">
+        <v>1</v>
+      </c>
+      <c r="K57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A58" t="s">
+        <v>65</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C58" s="1">
+        <v>20</v>
+      </c>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
+      <c r="J58" s="1"/>
+      <c r="L58" s="1"/>
+      <c r="M58" s="1"/>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A59" t="s">
+        <v>66</v>
+      </c>
+      <c r="B59" t="s">
+        <v>49</v>
+      </c>
+      <c r="C59">
+        <v>9.75</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A60" t="s">
+        <v>67</v>
+      </c>
+      <c r="B60" t="s">
+        <v>49</v>
+      </c>
+      <c r="C60">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A61" t="s">
+        <v>68</v>
+      </c>
+      <c r="B61" t="s">
+        <v>28</v>
+      </c>
+      <c r="C61">
+        <v>19</v>
+      </c>
+      <c r="D61">
+        <v>15.25</v>
+      </c>
+      <c r="E61">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A62" t="s">
+        <v>69</v>
+      </c>
+      <c r="B62" t="s">
+        <v>28</v>
+      </c>
+      <c r="C62">
+        <v>17</v>
+      </c>
+      <c r="D62">
+        <v>15.75</v>
+      </c>
+      <c r="E62">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A63" t="s">
+        <v>70</v>
+      </c>
+      <c r="B63" t="s">
+        <v>28</v>
+      </c>
+      <c r="D63">
+        <v>19.25</v>
+      </c>
+      <c r="E63">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A64" t="s">
+        <v>72</v>
+      </c>
+      <c r="B64" t="s">
+        <v>28</v>
+      </c>
+      <c r="D64">
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A65" t="s">
+        <v>75</v>
+      </c>
+      <c r="B65" t="s">
+        <v>49</v>
+      </c>
+      <c r="J65">
+        <v>2</v>
+      </c>
+      <c r="K65">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A66" t="s">
+        <v>76</v>
+      </c>
+      <c r="B66" t="s">
+        <v>49</v>
+      </c>
+      <c r="K66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A67" t="s">
+        <v>77</v>
+      </c>
+      <c r="B67" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q67">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="68" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A68" t="s">
+        <v>78</v>
+      </c>
+      <c r="B68" t="s">
+        <v>28</v>
+      </c>
+      <c r="R68">
+        <v>38.5</v>
+      </c>
+      <c r="S68">
+        <v>36.5</v>
+      </c>
+      <c r="T68">
+        <v>32.5</v>
+      </c>
+      <c r="U68">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A69" t="s">
+        <v>79</v>
+      </c>
+      <c r="B69" t="s">
+        <v>26</v>
+      </c>
+      <c r="R69">
+        <v>7</v>
+      </c>
+      <c r="S69">
+        <v>8</v>
+      </c>
+      <c r="T69">
+        <v>8.5</v>
+      </c>
+      <c r="U69">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A75" t="s">
+        <v>23</v>
+      </c>
+      <c r="B75" s="1">
         <v>1196</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C75" s="1">
         <v>1197</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D75" s="1">
         <v>1188</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E75" s="1">
         <v>1200</v>
       </c>
-      <c r="F30" s="1">
+      <c r="F75" s="1">
         <v>1200</v>
       </c>
-      <c r="G30" s="1">
+      <c r="G75" s="1">
         <v>1200</v>
       </c>
-      <c r="H30" s="1">
+      <c r="H75" s="1">
         <v>1200</v>
       </c>
-      <c r="I30" s="1">
+      <c r="I75" s="1">
         <v>1200</v>
       </c>
-      <c r="J30" s="1">
+      <c r="J75" s="1">
         <v>1200</v>
+      </c>
+      <c r="K75" s="2">
+        <v>43831</v>
+      </c>
+      <c r="L75" s="1">
+        <v>1200</v>
+      </c>
+      <c r="M75" s="1">
+        <v>1200</v>
+      </c>
+      <c r="N75" s="1">
+        <v>1201</v>
+      </c>
+      <c r="O75" s="1">
+        <v>1205</v>
+      </c>
+      <c r="P75" s="1">
+        <v>1208</v>
+      </c>
+      <c r="Q75" s="1">
+        <v>1200</v>
+      </c>
+      <c r="R75" s="1">
+        <v>1171</v>
+      </c>
+      <c r="S75" s="1">
+        <v>1119</v>
+      </c>
+      <c r="T75" s="1">
+        <v>1088</v>
+      </c>
+      <c r="U75" s="1">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="77" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A77" t="s">
+        <v>26</v>
+      </c>
+      <c r="B77" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="78" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A78" t="s">
+        <v>28</v>
+      </c>
+      <c r="B78" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="79" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A79" t="s">
+        <v>27</v>
+      </c>
+      <c r="B79" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="80" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A80" t="s">
+        <v>29</v>
+      </c>
+      <c r="B80" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A81" t="s">
+        <v>49</v>
+      </c>
+      <c r="B81" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>